--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.2_IE_Initial01.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.2_IE_Initial01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAEBCEB-7112-4D26-8649-B208D0A62BBC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF59EE-4A77-48C1-BA36-5EB49A865E43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,12 +120,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0F3FC"/>
+        <fgColor rgb="FFFEF1E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -152,13 +152,137 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF8DB4E2"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCAE8FF"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -166,104 +290,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF8DB4E2"/>
+        <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF8DB4E2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF8DB4E2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8DB4E2"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8DB4E2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8DB4E2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,30 +463,6 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,38 +475,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -641,9 +689,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FF8DB4E2"/>
       <color rgb="FFD0F3FC"/>
-      <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
   </colors>
@@ -982,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -997,20 +1045,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
@@ -1018,194 +1066,195 @@
         <v>2</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>42887</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>42887</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>42891</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>42894</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>42896</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="9"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C3:C19"/>
     <mergeCell ref="E3:E19"/>
+    <mergeCell ref="G4:G19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
